--- a/en/basic/Sample_Solver_Basic_7.0.xlsx
+++ b/en/basic/Sample_Solver_Basic_7.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Work\XLPack\XLPack_70\XLPack\release\sample\en\basic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devel\XLPack\XLPack_70\XLPack\release\sample\en\basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD67220-9510-41F0-B5E6-9A390DEFCE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C7B1DD-577B-4CDC-9685-829EEBBBE29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7371" yWindow="189" windowWidth="24789" windowHeight="17357" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NLEq1" sheetId="9" r:id="rId1"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>dy1/dt = -y2, dy2/dt = y1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">x = </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -359,9 +355,6 @@
     <t xml:space="preserve">Initial values  (input) and the computed values at specified t (output) </t>
   </si>
   <si>
-    <t>y1 = 1 and y2 = 0 at t = 0</t>
-  </si>
-  <si>
     <t>R8C2</t>
   </si>
   <si>
@@ -570,10 +563,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>t = 0 で y1 = 1, y2 = 0, dy1/dt = 0, dy2/dt = sqrt(3)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>y1'</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -611,6 +600,18 @@
   </si>
   <si>
     <t>Initial value problem of second order ordinary defferential equations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dy1/dt = y3, dy2/dt = y4, d2y1/dt2 = dy3/dt = -y1/r, d2y2/dt2 = dy4/dt = -y2/r, r = (y1^2 + y2^2)^(3/2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>y1 = 1, y2 = 0, y3 = dy1/dt = 0, y4 = dy2/dt = sqrt(3) at t = 0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>y1 = 1, y2 = 0, dy1/dt = 0, dy2/dt = sqrt(3) at t = 0</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -653,7 +654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,6 +679,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -1073,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1235,6 +1242,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,50 +1562,50 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="4" max="6" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="4" max="6" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="24"/>
       <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1621,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -1614,57 +1630,57 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="16"/>
@@ -1682,48 +1698,48 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="14.61328125" customWidth="1"/>
+    <col min="5" max="5" width="16.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="24"/>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1736,70 +1752,70 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>127</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="D10" s="19">
         <v>3</v>
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>128</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>126</v>
       </c>
       <c r="D11" s="19">
         <v>4</v>
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>131</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="D12" s="19">
         <v>5</v>
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
         <v>1</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="20"/>
       <c r="E16" s="16"/>
     </row>
@@ -1816,45 +1832,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="16.61328125" customWidth="1"/>
+    <col min="5" max="5" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="24"/>
       <c r="D6" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1864,52 +1880,52 @@
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>127</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>128</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>126</v>
       </c>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>137</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>135</v>
       </c>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
         <v>1E-8</v>
       </c>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
         <v>1</v>
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,45 +1940,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="4" max="8" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.61328125" customWidth="1"/>
+    <col min="4" max="8" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="23">
-        <v>2</v>
+        <f>A19</f>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>34</v>
@@ -1980,7 +1997,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>25</v>
       </c>
@@ -1994,10 +2011,15 @@
       <c r="F8" s="18">
         <v>0</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2010,7 +2032,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -2023,7 +2045,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -2036,7 +2058,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -2049,12 +2071,12 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="18">
-        <f>-B10</f>
+        <f>B11</f>
         <v>0</v>
       </c>
       <c r="D13" s="19">
@@ -2065,12 +2087,12 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="19">
-        <f>B9</f>
+        <f>B12</f>
         <v>0</v>
       </c>
       <c r="D14" s="19">
@@ -2081,11 +2103,14 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19" t="e">
+        <f>-B9*(B9^2+B10^2)^(-3/2)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="D15" s="19">
         <v>3.5</v>
       </c>
@@ -2094,11 +2119,14 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="20" t="e">
+        <f>-B10*(B9^2+B10^2)^(-3/2)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="D16" s="19">
         <v>4</v>
       </c>
@@ -2107,7 +2135,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="20">
         <v>4.5</v>
       </c>
@@ -2116,7 +2144,10 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
       <c r="D18" s="21">
         <v>5</v>
       </c>
@@ -2125,7 +2156,10 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="54">
+        <v>4</v>
+      </c>
       <c r="D19" s="19">
         <v>5.5</v>
       </c>
@@ -2134,7 +2168,10 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>84</v>
+      </c>
       <c r="D20" s="19">
         <v>6</v>
       </c>
@@ -2143,7 +2180,10 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="D21" s="19">
         <v>6.5</v>
       </c>
@@ -2152,7 +2192,10 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="D22" s="19">
         <v>7</v>
       </c>
@@ -2161,9 +2204,9 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>57</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>86</v>
       </c>
       <c r="D23" s="19">
         <v>7.5</v>
@@ -2173,9 +2216,9 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>2</v>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="55">
+        <v>1E-8</v>
       </c>
       <c r="D24" s="19">
         <v>8</v>
@@ -2185,9 +2228,9 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>86</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="56">
+        <v>1</v>
       </c>
       <c r="D25" s="19">
         <v>8.5</v>
@@ -2197,10 +2240,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>87</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>9</v>
       </c>
@@ -2209,10 +2249,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>49</v>
-      </c>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="20">
         <v>9.5</v>
       </c>
@@ -2221,10 +2258,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>88</v>
-      </c>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="21">
         <v>10</v>
       </c>
@@ -2233,69 +2267,63 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="19"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="19"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D32" s="19"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" s="19"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D34" s="19"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D35" s="19"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D36" s="19"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" s="20"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -2321,44 +2349,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="4" max="12" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.61328125" customWidth="1"/>
+    <col min="2" max="2" width="14.61328125" customWidth="1"/>
+    <col min="4" max="12" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="23">
+        <f>A19</f>
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2371,17 +2400,17 @@
         <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>25</v>
       </c>
@@ -2407,7 +2436,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2424,7 +2453,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -2441,7 +2470,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -2458,7 +2487,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -2475,9 +2504,9 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" s="18" t="e">
         <f>-B9*(B9^2+B10^2)^(-3/2)</f>
@@ -2495,9 +2524,9 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" s="19" t="e">
         <f>-B10*(B9^2+B10^2)^(-3/2)</f>
@@ -2515,9 +2544,9 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B15" s="19"/>
       <c r="D15" s="19">
@@ -2532,9 +2561,9 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" s="20"/>
       <c r="D16" s="19">
@@ -2549,7 +2578,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D17" s="20">
         <v>4.5</v>
       </c>
@@ -2562,7 +2591,10 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
       <c r="D18" s="21">
         <v>5</v>
       </c>
@@ -2575,7 +2607,10 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="54">
+        <v>2</v>
+      </c>
       <c r="D19" s="19">
         <v>5.5</v>
       </c>
@@ -2588,7 +2623,10 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>143</v>
+      </c>
       <c r="D20" s="19">
         <v>6</v>
       </c>
@@ -2601,7 +2639,10 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>144</v>
+      </c>
       <c r="D21" s="19">
         <v>6.5</v>
       </c>
@@ -2614,7 +2655,10 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>66</v>
+      </c>
       <c r="D22" s="19">
         <v>7</v>
       </c>
@@ -2627,9 +2671,9 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>57</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="19">
         <v>7.5</v>
@@ -2643,9 +2687,9 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>2</v>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="55">
+        <v>1E-8</v>
       </c>
       <c r="D24" s="19">
         <v>8</v>
@@ -2659,9 +2703,9 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>146</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="56">
+        <v>1</v>
       </c>
       <c r="D25" s="19">
         <v>8.5</v>
@@ -2675,10 +2719,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>147</v>
-      </c>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>9</v>
       </c>
@@ -2691,10 +2732,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>67</v>
-      </c>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D27" s="20">
         <v>9.5</v>
       </c>
@@ -2707,10 +2745,7 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28" s="21">
         <v>10</v>
       </c>
@@ -2723,10 +2758,7 @@
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>1E-8</v>
-      </c>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29" s="19"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -2737,10 +2769,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>1</v>
-      </c>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30" s="19"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -2751,7 +2780,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D31" s="19"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -2762,7 +2791,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D32" s="19"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2773,7 +2802,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D33" s="19"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -2784,7 +2813,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" s="19"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -2795,7 +2824,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" s="19"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -2806,7 +2835,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" s="19"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -2817,7 +2846,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D37" s="20"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -2847,73 +2876,74 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.61328125" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="17">
+        <f>A32</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="18">
         <f>4*B8^2+B9^2-16</f>
@@ -2921,9 +2951,9 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="19">
         <f>B8^2+B9^2-9</f>
@@ -2931,23 +2961,23 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="26">
         <f>8*B8</f>
@@ -2960,9 +2990,9 @@
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="29">
         <f>2*B8</f>
@@ -2975,30 +3005,30 @@
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
@@ -3006,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -3014,89 +3044,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="55">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56">
         <v>1</v>
       </c>
     </row>
@@ -3119,56 +3149,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="5" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="5" width="10.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="17">
+        <f>A20</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="45">
         <f>4*B8^2+C8^2-16</f>
@@ -3181,9 +3212,9 @@
       <c r="D9" s="46"/>
       <c r="E9" s="47"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="26">
         <f>8*B8</f>
@@ -3196,7 +3227,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="29">
         <f>2*B8</f>
@@ -3209,26 +3240,26 @@
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>18</v>
       </c>
@@ -3241,12 +3272,12 @@
       <c r="D15" s="46"/>
       <c r="E15" s="47"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>14</v>
       </c>
@@ -3255,48 +3286,48 @@
       <c r="D17" s="43"/>
       <c r="E17" s="44"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="55">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="56">
         <v>1</v>
       </c>
     </row>
@@ -3320,50 +3351,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="4" max="6" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="4" max="6" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="24"/>
       <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -3379,7 +3410,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -3388,9 +3419,9 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
@@ -3400,49 +3431,49 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>52</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>53</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="16"/>
@@ -3460,68 +3491,69 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="17">
+        <f>A29</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>23</v>
       </c>
@@ -3530,42 +3562,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" s="18">
         <f>-400*B8*(B9-B8^2)+2*B8-2</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="19">
         <f>200*B9-200*B8^2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="20"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -3573,7 +3605,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -3581,89 +3613,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="14"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="16"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56">
         <v>1</v>
       </c>
     </row>
@@ -3686,53 +3718,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="5" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="5" width="10.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="17">
+        <f>A17</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>23</v>
       </c>
@@ -3741,9 +3774,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" s="35">
         <f>-400*B8*(C8-B8^2)+2*B8-2</f>
@@ -3756,14 +3789,14 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="35">
         <v>-1.2</v>
@@ -3774,62 +3807,62 @@
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56">
         <v>1</v>
       </c>
     </row>
@@ -3853,24 +3886,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="4" width="4.6328125" customWidth="1"/>
-    <col min="5" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="12" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.61328125" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="3" max="4" width="4.61328125" customWidth="1"/>
+    <col min="5" max="7" width="12.61328125" customWidth="1"/>
+    <col min="8" max="12" width="11.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -3879,25 +3912,26 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
         <v>76</v>
       </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="17">
+        <f>A24</f>
         <v>14</v>
       </c>
       <c r="D6" s="3"/>
@@ -3908,20 +3942,21 @@
         <v>6</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>74</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>75</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="17">
+        <f>A25</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
@@ -3949,7 +3984,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -3978,7 +4013,7 @@
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
@@ -4007,7 +4042,7 @@
       <c r="J9" s="30"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -4036,7 +4071,7 @@
       <c r="J10" s="30"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -4065,9 +4100,9 @@
       <c r="J11" s="30"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5">
         <v>6</v>
@@ -4093,7 +4128,7 @@
       <c r="J12" s="30"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -4124,7 +4159,7 @@
       <c r="J13" s="30"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -4155,7 +4190,7 @@
       <c r="J14" s="30"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -4184,7 +4219,7 @@
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -4213,9 +4248,9 @@
       <c r="J16" s="33"/>
       <c r="K16" s="34"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4">
         <v>11</v>
@@ -4241,7 +4276,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
@@ -4270,7 +4305,7 @@
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>2</v>
       </c>
@@ -4299,7 +4334,7 @@
       <c r="J19" s="30"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
@@ -4328,7 +4363,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -4347,7 +4382,7 @@
       <c r="J21" s="30"/>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D22" s="5">
         <v>16</v>
       </c>
@@ -4362,9 +4397,9 @@
       <c r="J22" s="30"/>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="5">
         <v>17</v>
@@ -4380,8 +4415,8 @@
       <c r="J23" s="30"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
         <v>14</v>
       </c>
       <c r="D24" s="5">
@@ -4398,8 +4433,8 @@
       <c r="J24" s="30"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="55">
         <v>2</v>
       </c>
       <c r="D25" s="5">
@@ -4416,9 +4451,9 @@
       <c r="J25" s="30"/>
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>48</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="6">
         <v>20</v>
@@ -4434,33 +4469,33 @@
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="55">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="56">
         <v>1</v>
       </c>
     </row>
@@ -4489,24 +4524,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="7" width="4.6328125" customWidth="1"/>
-    <col min="8" max="10" width="12.6328125" customWidth="1"/>
-    <col min="11" max="14" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.61328125" customWidth="1"/>
+    <col min="2" max="5" width="10.61328125" customWidth="1"/>
+    <col min="6" max="7" width="4.61328125" customWidth="1"/>
+    <col min="8" max="10" width="12.61328125" customWidth="1"/>
+    <col min="11" max="14" width="11.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -4515,25 +4550,26 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="17">
+        <f>A15</f>
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
@@ -4544,20 +4580,21 @@
         <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="36" t="s">
         <v>74</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>75</v>
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="38"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="17">
+        <f>A16</f>
         <v>2</v>
       </c>
       <c r="F7" s="2"/>
@@ -4585,9 +4622,9 @@
       <c r="M7" s="40"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="43"/>
@@ -4617,9 +4654,9 @@
       <c r="M8" s="30"/>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="5">
         <v>3</v>
@@ -4645,9 +4682,9 @@
       <c r="M9" s="30"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="45">
         <v>100</v>
@@ -4681,9 +4718,9 @@
       <c r="M10" s="30"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
@@ -4709,7 +4746,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +4778,7 @@
       <c r="M12" s="30"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" s="5">
         <v>7</v>
       </c>
@@ -4766,9 +4803,9 @@
       <c r="M13" s="30"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="5">
         <v>8</v>
@@ -4794,8 +4831,8 @@
       <c r="M14" s="30"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="54">
         <v>14</v>
       </c>
       <c r="G15" s="5">
@@ -4822,8 +4859,8 @@
       <c r="M15" s="30"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
         <v>2</v>
       </c>
       <c r="G16" s="6">
@@ -4850,9 +4887,9 @@
       <c r="M16" s="33"/>
       <c r="N16" s="34"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>104</v>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="G17" s="4">
         <v>11</v>
@@ -4878,9 +4915,9 @@
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>125</v>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="G18" s="5">
         <v>12</v>
@@ -4906,9 +4943,9 @@
       <c r="M18" s="30"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>126</v>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>124</v>
       </c>
       <c r="G19" s="5">
         <v>13</v>
@@ -4934,9 +4971,9 @@
       <c r="M19" s="30"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>119</v>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>117</v>
       </c>
       <c r="G20" s="5">
         <v>14</v>
@@ -4962,9 +4999,9 @@
       <c r="M20" s="30"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>120</v>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>118</v>
       </c>
       <c r="G21" s="5">
         <v>15</v>
@@ -4980,8 +5017,8 @@
       <c r="M21" s="30"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="55">
         <v>1E-8</v>
       </c>
       <c r="G22" s="5">
@@ -4998,8 +5035,8 @@
       <c r="M22" s="30"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="56">
         <v>1</v>
       </c>
       <c r="G23" s="5">
@@ -5016,7 +5053,7 @@
       <c r="M23" s="30"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G24" s="5">
         <v>18</v>
       </c>
@@ -5031,7 +5068,7 @@
       <c r="M24" s="30"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G25" s="5">
         <v>19</v>
       </c>
@@ -5046,7 +5083,7 @@
       <c r="M25" s="30"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G26" s="6">
         <v>20</v>
       </c>
@@ -5086,50 +5123,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="4" max="6" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.61328125" customWidth="1"/>
+    <col min="2" max="2" width="10.61328125" customWidth="1"/>
+    <col min="4" max="6" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="24"/>
       <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -5145,7 +5182,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="19">
         <v>0</v>
       </c>
@@ -5154,9 +5191,9 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
@@ -5166,9 +5203,9 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>127</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -5178,9 +5215,9 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>128</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>126</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -5190,9 +5227,9 @@
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>129</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>127</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -5202,8 +5239,8 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
         <v>1E-8</v>
       </c>
       <c r="D13" s="19">
@@ -5214,24 +5251,24 @@
       </c>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
         <v>1</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
         <v>1</v>
       </c>
       <c r="D16" s="20"/>
